--- a/biology/Botanique/Alloeochaete/Alloeochaete.xlsx
+++ b/biology/Botanique/Alloeochaete/Alloeochaete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Alloeochaete  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae[2], originaire d'Afrique australe, qui comprend six espèces.
-Ce sont des plantes herbacées vivaces, cespiteuse, aux tiges pouvant atteindre 200 cm de haut, à inflorescence paniculée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Alloeochaete  est un genre de plantes monocotylédones de la famille des Poaceae, famille des Danthonioideae, originaire d'Afrique australe, qui comprend six espèces.
+Ce sont des plantes herbacées vivaces, cespiteuse, aux tiges pouvant atteindre 200 cm de haut, à inflorescence paniculée.
 Ces plantes xérophytes préfèrent les habitats ouverts.
 Étymologie
-le nom générique « Alloeochaete » dérive de deux racines grecques  ἀλλοῖος, alloios (différent), et χαίτη, chaite (poil), en référence aux touffes de poils présentes sur la lemme[3].</t>
+le nom générique « Alloeochaete » dérive de deux racines grecques  ἀλλοῖος, alloios (différent), et χαίτη, chaite (poil), en référence aux touffes de poils présentes sur la lemme.</t>
         </is>
       </c>
     </row>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 mai 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (10 mai 2017) :
 Alloeochaete andongensis (Rendle) C.E.Hubb. (1940)
 Alloeochaete geniculata Kabuye (1975)
 Alloeochaete gracillima Kabuye (1975)
